--- a/JS/catastralSistem/documents/FORMULARIOS_SOLICITUDv2.xlsx
+++ b/JS/catastralSistem/documents/FORMULARIOS_SOLICITUDv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGAC\2021\Catatumbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5365C0B-21ED-4EE2-BB09-737C59D09446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E9B74-03B1-433B-B251-19ABE1E57AF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="4770" xr2:uid="{0FDB905D-0CD4-4161-A42E-36CEE25AE4F3}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="106">
   <si>
     <t>Documento / Trámite</t>
   </si>
@@ -922,15 +922,93 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,84 +1016,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,10 +1335,10 @@
   <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="A10:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,9 +1346,9 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
@@ -1367,149 +1367,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="14">
         <v>1</v>
       </c>
-      <c r="F1" s="50">
+      <c r="F1" s="66">
         <v>2</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66">
+        <v>3</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="14">
         <v>4</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="14">
+      <c r="K1" s="14">
+        <v>5</v>
+      </c>
+      <c r="L1" s="15">
+        <v>6</v>
+      </c>
+      <c r="M1" s="71">
         <v>7</v>
       </c>
-      <c r="K1" s="14">
+      <c r="N1" s="72"/>
+      <c r="O1" s="15">
+        <v>8</v>
+      </c>
+      <c r="P1" s="71">
         <v>9</v>
       </c>
-      <c r="L1" s="15">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="15">
         <v>10</v>
       </c>
-      <c r="M1" s="54">
+      <c r="S1" s="71">
         <v>11</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="15">
+      <c r="T1" s="72"/>
+      <c r="U1" s="15">
         <v>12</v>
       </c>
-      <c r="P1" s="15">
+      <c r="V1" s="15">
         <v>13</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="W1" s="15">
         <v>14</v>
       </c>
-      <c r="R1" s="15">
+      <c r="X1" s="15">
         <v>15</v>
       </c>
-      <c r="S1" s="15">
+      <c r="Y1" s="15">
         <v>16</v>
       </c>
-      <c r="T1" s="15">
+      <c r="Z1" s="15">
         <v>17</v>
       </c>
-      <c r="U1" s="15">
+      <c r="AA1" s="15">
         <v>18</v>
       </c>
-      <c r="V1" s="15">
-        <v>19</v>
-      </c>
-      <c r="W1" s="15">
+      <c r="AB1" s="16">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="32">
         <v>20</v>
       </c>
-      <c r="X1" s="15">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="15">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="15">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="15">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="16">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="32">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="74"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="30"/>
       <c r="E2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="49" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49" t="s">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="62" t="s">
+      <c r="T2" s="46"/>
+      <c r="U2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
     </row>
     <row r="3" spans="1:29" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="30" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
@@ -1519,24 +1515,24 @@
       <c r="L3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="51"/>
+      <c r="Q3" s="62"/>
       <c r="R3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="45"/>
+      <c r="T3" s="75"/>
       <c r="U3" s="6" t="s">
         <v>62</v>
       </c>
@@ -1566,9 +1562,9 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="75"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="31"/>
       <c r="E4" s="18" t="s">
         <v>21</v>
@@ -1632,10 +1628,10 @@
       <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="46"/>
+      <c r="M5" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="70"/>
       <c r="O5" s="13" t="s">
         <v>19</v>
       </c>
@@ -1646,10 +1642,10 @@
       <c r="R5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="46"/>
+      <c r="S5" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="70"/>
       <c r="U5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1675,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="42" t="s">
@@ -1713,8 +1709,8 @@
       <c r="L6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1754,7 @@
       <c r="AC6" s="34"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
@@ -1841,7 +1837,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
@@ -1871,10 +1867,10 @@
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="44"/>
+      <c r="M8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="53"/>
       <c r="O8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1885,10 +1881,10 @@
       <c r="R8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="44"/>
+      <c r="S8" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="53"/>
       <c r="U8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1918,7 +1914,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
@@ -1946,10 +1942,10 @@
       <c r="L9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="44"/>
+      <c r="M9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="53"/>
       <c r="O9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1960,10 +1956,10 @@
       <c r="R9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="44"/>
+      <c r="S9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="53"/>
       <c r="U9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +1989,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="42" t="s">
         <v>71</v>
       </c>
@@ -2017,8 +2013,8 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -2037,7 +2033,7 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="42" t="s">
         <v>74</v>
       </c>
@@ -2057,8 +2053,8 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -2075,7 +2071,7 @@
       <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="43" t="s">
         <v>22</v>
       </c>
@@ -2093,10 +2089,10 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="44"/>
+      <c r="M12" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="53"/>
       <c r="O12" s="8" t="s">
         <v>19</v>
       </c>
@@ -2117,7 +2113,7 @@
       <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="43" t="s">
         <v>23</v>
       </c>
@@ -2133,10 +2129,10 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="44"/>
+      <c r="M13" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="53"/>
       <c r="O13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2153,7 @@
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="43" t="s">
         <v>24</v>
       </c>
@@ -2175,10 +2171,10 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="44"/>
+      <c r="M14" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="53"/>
       <c r="O14" s="8" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2195,7 @@
       <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="43" t="s">
         <v>26</v>
       </c>
@@ -2215,10 +2211,10 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="44"/>
+      <c r="M15" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="53"/>
       <c r="O15" s="8" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2235,7 @@
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="43" t="s">
         <v>28</v>
       </c>
@@ -2259,8 +2255,8 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2277,7 +2273,7 @@
       <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="43" t="s">
         <v>30</v>
       </c>
@@ -2297,8 +2293,8 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2315,7 +2311,7 @@
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="43" t="s">
         <v>39</v>
       </c>
@@ -2353,7 +2349,7 @@
       <c r="AB18" s="7"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="43" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2387,7 @@
       <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="43" t="s">
         <v>44</v>
       </c>
@@ -2409,10 +2405,10 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="44"/>
+      <c r="M20" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="53"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -2429,7 +2425,7 @@
       <c r="AB20" s="7"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="43" t="s">
         <v>46</v>
       </c>
@@ -2473,7 +2469,7 @@
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="43" t="s">
         <v>49</v>
       </c>
@@ -2513,7 +2509,7 @@
       <c r="AB22" s="7"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="43" t="s">
@@ -2553,7 +2549,7 @@
       <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="43" t="s">
         <v>34</v>
       </c>
@@ -2591,7 +2587,7 @@
       <c r="AB24" s="7"/>
     </row>
     <row r="25" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="43" t="s">
@@ -2609,7 +2605,9 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2629,7 +2627,7 @@
       <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="43" t="s">
         <v>34</v>
       </c>
@@ -2645,7 +2643,9 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2703,13 +2703,13 @@
       <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
@@ -2735,24 +2735,24 @@
       <c r="L28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="44"/>
+      <c r="M28" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="53"/>
       <c r="O28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="44"/>
+      <c r="P28" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="53"/>
       <c r="R28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S28" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T28" s="44"/>
+      <c r="S28" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="53"/>
       <c r="U28" s="7" t="s">
         <v>19</v>
       </c>
@@ -2782,11 +2782,11 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="61"/>
       <c r="D29" t="s">
         <v>105</v>
       </c>
@@ -2810,24 +2810,24 @@
       <c r="L29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="44"/>
+      <c r="M29" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="53"/>
       <c r="O29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="44"/>
+      <c r="P29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="53"/>
       <c r="R29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S29" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T29" s="44"/>
+      <c r="S29" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="53"/>
       <c r="U29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2857,11 +2857,11 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="24" t="s">
         <v>102</v>
       </c>
@@ -2885,24 +2885,24 @@
       <c r="L30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="44"/>
+      <c r="M30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="53"/>
       <c r="O30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="44"/>
+      <c r="P30" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="53"/>
       <c r="R30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S30" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" s="44"/>
+      <c r="S30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="53"/>
       <c r="U30" s="7" t="s">
         <v>19</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -2964,24 +2964,24 @@
       <c r="L31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M31" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="44"/>
+      <c r="M31" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="53"/>
       <c r="O31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="44"/>
+      <c r="P31" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="53"/>
       <c r="R31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S31" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="44"/>
+      <c r="S31" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="53"/>
       <c r="U31" s="7" t="s">
         <v>19</v>
       </c>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="42" t="s">
         <v>18</v>
       </c>
@@ -3037,24 +3037,24 @@
       <c r="L32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="44"/>
+      <c r="M32" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="53"/>
       <c r="O32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="44"/>
+      <c r="P32" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="53"/>
       <c r="R32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S32" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="44"/>
+      <c r="S32" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="53"/>
       <c r="U32" s="7" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="28" t="s">
         <v>80</v>
       </c>
@@ -3093,14 +3093,14 @@
       <c r="E33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="66" t="s">
+      <c r="G33" s="50"/>
+      <c r="H33" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="67"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3110,24 +3110,24 @@
       <c r="L33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="M33" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="69"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P33" s="66" t="s">
+      <c r="P33" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="67"/>
+      <c r="Q33" s="50"/>
       <c r="R33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="68" t="s">
+      <c r="S33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="T33" s="69"/>
+      <c r="T33" s="52"/>
       <c r="U33" s="11" t="s">
         <v>93</v>
       </c>
@@ -4141,7 +4141,52 @@
       <c r="L115" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="61">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -4158,49 +4203,6 @@
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JS/catastralSistem/documents/FORMULARIOS_SOLICITUDv2.xlsx
+++ b/JS/catastralSistem/documents/FORMULARIOS_SOLICITUDv2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGAC\2021\Catatumbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTWARE\REPOSITORIOS\React\JS\catastralSistem\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E9B74-03B1-433B-B251-19ABE1E57AF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="4770" xr2:uid="{0FDB905D-0CD4-4161-A42E-36CEE25AE4F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pc</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C0AFEC70-4DF2-4A23-B523-6FBA1DA5C364}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{D5A7AF00-6910-4F8F-9048-49670A76D9D8}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +478,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -787,7 +792,173 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -795,38 +966,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -835,49 +989,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -903,55 +1028,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,53 +1092,227 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,14 +1627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10243EC-D51B-429A-B19B-40D30F534DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="A10:XFD22"/>
+      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,9 +1642,9 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="9" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
@@ -1360,1799 +1656,1815 @@
     <col min="22" max="22" width="18.140625" customWidth="1"/>
     <col min="23" max="23" width="19.28515625" customWidth="1"/>
     <col min="24" max="24" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" customWidth="1"/>
+    <col min="25" max="29" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33"/>
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="14">
+      <c r="D1" s="16"/>
+      <c r="E1" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F1" s="85">
         <v>2</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85">
         <v>3</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="14">
+      <c r="I1" s="85"/>
+      <c r="J1" s="86">
         <v>4</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="86">
         <v>5</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="57">
         <v>6</v>
       </c>
-      <c r="M1" s="71">
+      <c r="M1" s="58">
         <v>7</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="15">
+      <c r="N1" s="59"/>
+      <c r="O1" s="57">
         <v>8</v>
       </c>
-      <c r="P1" s="71">
+      <c r="P1" s="58">
         <v>9</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="15">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="57">
         <v>10</v>
       </c>
-      <c r="S1" s="71">
+      <c r="S1" s="58">
         <v>11</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="15">
+      <c r="T1" s="59"/>
+      <c r="U1" s="57">
         <v>12</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="57">
         <v>13</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="57">
         <v>14</v>
       </c>
-      <c r="X1" s="15">
+      <c r="X1" s="57">
         <v>15</v>
       </c>
-      <c r="Y1" s="15">
+      <c r="Y1" s="57">
         <v>16</v>
       </c>
-      <c r="Z1" s="15">
+      <c r="Z1" s="57">
         <v>17</v>
       </c>
-      <c r="AA1" s="15">
+      <c r="AA1" s="57">
         <v>18</v>
       </c>
-      <c r="AB1" s="16">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="32">
+      <c r="AB1" s="113">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="46" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="116"/>
     </row>
     <row r="3" spans="1:29" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="30" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="93"/>
+      <c r="O3" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="118" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="119"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="70"/>
-      <c r="U5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="34" t="s">
+      <c r="E5" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="96"/>
+      <c r="U5" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="E6" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="37" t="s">
+      <c r="J6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="55"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="42" t="s">
+      <c r="U6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="120"/>
+    </row>
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="11"/>
       <c r="D7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="J7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="37" t="s">
+      <c r="O7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC7" s="34" t="s">
+      <c r="U7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="34" t="s">
+      <c r="E8" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="100"/>
+      <c r="O8" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="100"/>
+      <c r="U8" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC9" s="34" t="s">
+      <c r="E9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="100"/>
+      <c r="O9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="100"/>
+      <c r="U9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="71"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="121"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="119"/>
     </row>
     <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="100"/>
+      <c r="O12" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="119"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="100"/>
+      <c r="O13" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="119"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="119"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="100"/>
+      <c r="O15" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="119"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="119"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="119"/>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="119"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="119"/>
     </row>
     <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="53"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="43" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="100"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="119"/>
+    </row>
+    <row r="21" spans="1:29" s="48" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="9" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="9" t="s">
+      <c r="O21" s="72"/>
+      <c r="P21" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="122"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="119"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="119"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="119"/>
     </row>
     <row r="25" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="119"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="119"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="119"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC28" s="34" t="s">
+      <c r="E28" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="100"/>
+      <c r="O28" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="100"/>
+      <c r="U28" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB28" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="32"/>
       <c r="D29" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T29" s="53"/>
-      <c r="U29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC29" s="34" t="s">
+      <c r="E29" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="100"/>
+      <c r="O29" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="100"/>
+      <c r="U29" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="24" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC30" s="34" t="s">
+      <c r="E30" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="100"/>
+      <c r="O30" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="100"/>
+      <c r="U30" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB30" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC30" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="53"/>
-      <c r="U31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC31" s="35" t="s">
+      <c r="E31" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="100"/>
+      <c r="O31" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="100"/>
+      <c r="U31" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC31" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="53"/>
-      <c r="U32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC32" s="35" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="100"/>
+      <c r="O32" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="100"/>
+      <c r="U32" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="W32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB32" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC32" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="49" t="s">
+      <c r="G33" s="76"/>
+      <c r="H33" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="10" t="s">
+      <c r="I33" s="76"/>
+      <c r="J33" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="10" t="s">
+      <c r="N33" s="107"/>
+      <c r="O33" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="P33" s="49" t="s">
+      <c r="P33" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="11" t="s">
+      <c r="Q33" s="76"/>
+      <c r="R33" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="51" t="s">
+      <c r="S33" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="11" t="s">
+      <c r="T33" s="107"/>
+      <c r="U33" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="V33" s="11" t="s">
+      <c r="V33" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="W33" s="11" t="s">
+      <c r="W33" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="X33" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="Y33" s="11" t="s">
+      <c r="Y33" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="Z33" s="11" t="s">
+      <c r="Z33" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="AA33" s="11" t="s">
+      <c r="AA33" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="AB33" s="11" t="s">
+      <c r="AB33" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="AC33" s="36" t="s">
+      <c r="AC33" s="125" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4142,51 +4454,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -4203,6 +4470,51 @@
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
